--- a/data/trans_orig/Q25_A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Provincia-trans_orig.xlsx
@@ -669,13 +669,13 @@
         <v>11.41748381768484</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15.4957788291298</v>
+        <v>15.49577882912979</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>4.445640492017236</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>8.442059638368715</v>
+        <v>8.442059638368713</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>8.494674506373864</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.635164075546122</v>
+        <v>7.655282064485093</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.678001745913779</v>
+        <v>8.733207093023996</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.351169161831326</v>
+        <v>9.306602632460926</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12.53707778502832</v>
+        <v>12.6732977120785</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.779039621021882</v>
+        <v>2.858409370557235</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.692145387087816</v>
+        <v>5.871408525069292</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.113782508667788</v>
+        <v>6.09661739158369</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>9.48097169921131</v>
+        <v>9.15900014030429</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.384249853246737</v>
+        <v>6.591043000889827</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8.393957425419066</v>
+        <v>8.392744912687952</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8.634737861087464</v>
+        <v>8.480132494039596</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>12.53931080061045</v>
+        <v>12.77536225925952</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.39695125568326</v>
+        <v>12.47034330386993</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.95099040817704</v>
+        <v>13.77542461301179</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.75515543696808</v>
+        <v>13.95501203788108</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.2892867457368</v>
+        <v>18.60349519939571</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.154733050194792</v>
+        <v>7.670423797000172</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.83367892077463</v>
+        <v>12.11508162646677</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.35383932893794</v>
+        <v>15.81478564308617</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.11314345546744</v>
+        <v>16.29977005119752</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.17921796179417</v>
+        <v>10.67615452405406</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12.32141740833224</v>
+        <v>12.49066504005825</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12.72572194608114</v>
+        <v>12.73643049675933</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>17.26109789566707</v>
+        <v>17.30880296231472</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.379953425434023</v>
+        <v>9.563842279885533</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>10.73372510114877</v>
+        <v>10.72255047525032</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.918686404248307</v>
+        <v>9.153904076700822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11.92732040468413</v>
+        <v>12.06030449416128</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.749956655494828</v>
+        <v>3.728787229990099</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>5.266879449924656</v>
+        <v>5.380475639410819</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>7.362082331430582</v>
+        <v>7.346470209129881</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>9.422411823319257</v>
+        <v>9.521864779806117</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>8.637276122705009</v>
+        <v>8.67289622322413</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9.402508528766278</v>
+        <v>9.26433346733781</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9.148334260058252</v>
+        <v>9.081831992276571</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>11.47564612192269</v>
+        <v>11.59608646779531</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.09699421156567</v>
+        <v>13.19995703346023</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.435739212788</v>
+        <v>15.11701979477037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.36770137784324</v>
+        <v>13.2380165662039</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16.45173243499141</v>
+        <v>16.60875233294422</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>8.629371569977359</v>
+        <v>8.92875498662695</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>9.137337922115277</v>
+        <v>9.137919674746641</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>14.55895784011063</v>
+        <v>14.93658384129236</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>14.03505784686315</v>
+        <v>14.06309541391594</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>12.00166600360955</v>
+        <v>11.88717631941685</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12.96282890355964</v>
+        <v>12.73900055883736</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12.90349515436935</v>
+        <v>13.05857713345531</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>14.8363908301737</v>
+        <v>14.85562824734822</v>
       </c>
     </row>
     <row r="10">
@@ -947,13 +947,13 @@
         <v>4.516724913072347</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>6.42199900921448</v>
+        <v>6.421999009214481</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>6.924519727453784</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>9.997473158447658</v>
+        <v>9.997473158447661</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>10.28869337761775</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.579502737347397</v>
+        <v>9.617030468254546</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.471465745598055</v>
+        <v>9.337232075913768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10.97807805616029</v>
+        <v>10.79433091516186</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.79185297712979</v>
+        <v>12.61366680232519</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.881492670920801</v>
+        <v>2.870944885152763</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.677597762481226</v>
+        <v>4.69880175539943</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.985947781431771</v>
+        <v>5.004735308996135</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.960640112950022</v>
+        <v>8.085412615318823</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.58708275473122</v>
+        <v>8.596097978237271</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8.382040192604482</v>
+        <v>8.446188213505868</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9.630446536348853</v>
+        <v>9.313687407403537</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>11.18326545462901</v>
+        <v>11.19792682317584</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.85156800997206</v>
+        <v>13.92922914055406</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.72618096130892</v>
+        <v>13.84581214933976</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.88064285006248</v>
+        <v>15.72993207986093</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.92372621972458</v>
+        <v>18.04284278401546</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.248897162381735</v>
+        <v>6.371842108809248</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.61754809994132</v>
+        <v>8.46739785450441</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.350965100029006</v>
+        <v>9.928921264834818</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.41858030540824</v>
+        <v>12.3947599352662</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.43595617653259</v>
+        <v>12.38449143007972</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11.93838314273751</v>
+        <v>11.98916618606962</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13.38052184258027</v>
+        <v>13.21842426363401</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>14.89440580073508</v>
+        <v>14.78792039419635</v>
       </c>
     </row>
     <row r="13">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>9.881675325212623</v>
+        <v>9.881675325212624</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>12.51975799455199</v>
@@ -1101,7 +1101,7 @@
         <v>12.15160895122449</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>16.77938352366585</v>
+        <v>16.77938352366586</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.359041576879097</v>
+        <v>8.420203964591796</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10.49096713655182</v>
+        <v>10.3300417476896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11.62336257637233</v>
+        <v>11.74610744780629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15.41220901402944</v>
+        <v>15.56818637686939</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.876548030537489</v>
+        <v>4.860627041986442</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.863764672209046</v>
+        <v>6.920363188758865</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.081815311423502</v>
+        <v>7.111970722821497</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>12.30958213458091</v>
+        <v>12.46792761052415</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>7.527582015199453</v>
+        <v>7.573965610488806</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9.690099087990664</v>
+        <v>9.775446628460955</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10.66023999181129</v>
+        <v>10.69419614434171</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>14.9748824254575</v>
+        <v>14.96555479431631</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.55331293345696</v>
+        <v>11.67240716184891</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.15384149572351</v>
+        <v>14.79195640351248</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.22049955800192</v>
+        <v>16.31370070948534</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20.44757027382975</v>
+        <v>20.41810096488348</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>8.541524351802817</v>
+        <v>8.734028730113161</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>13.23525655069816</v>
+        <v>12.92893622325523</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>12.19509681983401</v>
+        <v>12.50737560752925</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>17.6642771679789</v>
+        <v>17.60896747767021</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>10.09286125695134</v>
+        <v>10.05708297790421</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13.35403802407134</v>
+        <v>13.61404909253149</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14.02514376241625</v>
+        <v>14.09177582747464</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>18.59086751026901</v>
+        <v>18.65818757743691</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.726707272217734</v>
+        <v>8.734723662888916</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.350934880566495</v>
+        <v>9.668688606525114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.4261377783763</v>
+        <v>10.86315499660153</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.727272943786454</v>
+        <v>9.779045840169696</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.936955679486096</v>
+        <v>3.906308634093708</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.644969429837841</v>
+        <v>5.655835440667938</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.165458787384002</v>
+        <v>2.40619198141305</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.942915875792483</v>
+        <v>6.932085760523219</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.198839554954684</v>
+        <v>7.174500460348108</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8.952712627470722</v>
+        <v>8.979616491405819</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8.225371589957339</v>
+        <v>8.102900345079483</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>9.48006365318658</v>
+        <v>9.645783180735823</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.52404856926665</v>
+        <v>15.11453574129995</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.23212743711559</v>
+        <v>17.94647343383019</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.67991535913186</v>
+        <v>18.33400081524462</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.47524021789342</v>
+        <v>16.95542072337001</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.450965483581436</v>
+        <v>9.062137432560414</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.92733556566803</v>
+        <v>11.95966941613411</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.983277510534866</v>
+        <v>5.093383903007321</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.68971997872864</v>
+        <v>15.29449652086009</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.39266158753112</v>
+        <v>11.5361101253226</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14.463697177037</v>
+        <v>14.59820498831225</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13.73037111608558</v>
+        <v>13.87166031829954</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>15.11907957268537</v>
+        <v>15.19640391449111</v>
       </c>
     </row>
     <row r="19">
@@ -1364,7 +1364,7 @@
         <v>11.45546827293569</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>7.419739939894351</v>
+        <v>7.41973993989435</v>
       </c>
       <c r="L19" s="5" t="n">
         <v>10.1707593987861</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.684493648796974</v>
+        <v>6.75154895784932</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>9.027317564418709</v>
+        <v>9.058278642855937</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9.784001439074148</v>
+        <v>10.03490038676424</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13.80551061630475</v>
+        <v>13.83023329300139</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.78818741339912</v>
+        <v>2.76098610211495</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>4.14744522989688</v>
+        <v>4.344108699443981</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>4.318403380484031</v>
+        <v>4.289037902383442</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>7.609001491338777</v>
+        <v>7.39178829074698</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>5.855807730800547</v>
+        <v>5.922188852487054</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8.328157033197975</v>
+        <v>8.319574723654538</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8.984948594916672</v>
+        <v>9.095796348521446</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>13.31594751897895</v>
+        <v>13.10182016807654</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.15742232190926</v>
+        <v>11.34168612610712</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>13.45922583420617</v>
+        <v>13.5684377665277</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.05464024896315</v>
+        <v>15.17290530542245</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19.68364032672467</v>
+        <v>19.60423653151426</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>5.629532079662238</v>
+        <v>5.632098811819493</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>9.623653270466829</v>
+        <v>9.757310784057093</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>10.10860605547293</v>
+        <v>10.16780926619582</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>16.31406070504408</v>
+        <v>17.09255444722559</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>9.528083843403815</v>
+        <v>9.407741313922063</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12.26483106419276</v>
+        <v>12.32140795015866</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13.14300560627345</v>
+        <v>13.47004771966759</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>18.22744902169193</v>
+        <v>18.18671104231825</v>
       </c>
     </row>
     <row r="22">
@@ -1491,7 +1491,7 @@
         <v>8.722459191197906</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.627026910611037</v>
+        <v>7.627026910611036</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>8.248932016378166</v>
@@ -1506,7 +1506,7 @@
         <v>10.99778384081735</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9.693391423481678</v>
+        <v>9.69339142348168</v>
       </c>
       <c r="N22" s="5" t="n">
         <v>15.83073749525579</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9.624782588454366</v>
+        <v>9.533247167723079</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>11.16283683551773</v>
+        <v>11.02947254915567</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.131208350881888</v>
+        <v>9.189995709152406</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15.16911074162668</v>
+        <v>15.25900259858838</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.58369179061058</v>
+        <v>6.697636172271872</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.454238004166275</v>
+        <v>6.401521618274767</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.635442231546605</v>
+        <v>6.810667571497913</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>12.17998963085252</v>
+        <v>11.91841279754843</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>9.235274070707634</v>
+        <v>9.06562235532024</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9.775489807522069</v>
+        <v>9.759627461685785</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8.541519752136118</v>
+        <v>8.546033817460039</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>14.4656191087019</v>
+        <v>14.41149644557236</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.29140315538438</v>
+        <v>13.27853785357362</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.12292307424643</v>
+        <v>15.17882984374525</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.56267331001296</v>
+        <v>12.40838894467666</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.27984055176731</v>
+        <v>19.41941408155096</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.52102483403311</v>
+        <v>12.22712481581337</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.350433060852438</v>
+        <v>9.155139840740828</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.948913783471456</v>
+        <v>9.990657218898136</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>16.26942007519861</v>
+        <v>16.29975236379573</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>12.35198539121778</v>
+        <v>12.10043072490317</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12.57826318457295</v>
+        <v>12.64048119330534</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10.98873655662593</v>
+        <v>10.88699104319095</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>17.52713195712506</v>
+        <v>17.3573623591459</v>
       </c>
     </row>
     <row r="25">
@@ -1624,7 +1624,7 @@
         <v>16.89732889809155</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>8.619015098459856</v>
+        <v>8.619015098459858</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>7.358775955359577</v>
@@ -1645,7 +1645,7 @@
         <v>13.48812372485382</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>15.57246154369303</v>
+        <v>15.57246154369304</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>9.87610761062712</v>
+        <v>9.978312212994323</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>9.544308388631386</v>
+        <v>9.57957368351903</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12.90346890706256</v>
+        <v>12.87710900513418</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15.30285542327267</v>
+        <v>14.84146182503432</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>7.036231408220741</v>
+        <v>6.93774886473784</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>5.862872531970926</v>
+        <v>5.764830196624666</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>9.359231687894749</v>
+        <v>9.196452894873756</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>9.321527136172362</v>
+        <v>9.530391857688391</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>9.234151758103167</v>
+        <v>9.27225133434858</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8.64962072992898</v>
+        <v>8.796342470685669</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12.0339012328557</v>
+        <v>12.01902955278647</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>13.95305232979943</v>
+        <v>13.92142971236827</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>13.35023681332414</v>
+        <v>13.50332001794688</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>13.33405598941455</v>
+        <v>13.39018782326684</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16.81492262792468</v>
+        <v>16.89252527197186</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>18.77948678158414</v>
+        <v>18.54350695991107</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>10.95544268840789</v>
+        <v>10.89630654932598</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>9.179933034247819</v>
+        <v>9.342338895785408</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>13.76095888116354</v>
+        <v>13.87505243751509</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>14.51524871872193</v>
+        <v>14.62677278107411</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>11.99541021211778</v>
+        <v>11.82723761067721</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11.53492161165078</v>
+        <v>11.5384849083075</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>15.14835357444599</v>
+        <v>15.17233480745259</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>16.97305969356872</v>
+        <v>17.08719767054567</v>
       </c>
     </row>
     <row r="28">
@@ -1766,7 +1766,7 @@
         <v>7.638726250146461</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>8.842250992934423</v>
+        <v>8.842250992934424</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12.71082630216208</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>10.09949118674505</v>
+        <v>10.09643436366185</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>11.26647432602179</v>
+        <v>11.32158670540252</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11.84479799312496</v>
+        <v>11.87337577119894</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15.3424547222866</v>
+        <v>15.35356097270669</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.904848807605857</v>
+        <v>5.92037208681711</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.886660759799391</v>
+        <v>6.950583872911235</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>7.977203281394078</v>
+        <v>7.891183112685335</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>11.77653837083501</v>
+        <v>11.7472465945469</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>9.062462827635505</v>
+        <v>9.024521765975388</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10.04580945820862</v>
+        <v>10.11026179967735</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10.71961951181199</v>
+        <v>10.67937450473614</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>14.35687830725331</v>
+        <v>14.30875700828867</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.52909905033899</v>
+        <v>11.65311453990771</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.00876711850167</v>
+        <v>12.98998346950143</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13.50040230485479</v>
+        <v>13.56927123371711</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.15873239511694</v>
+        <v>17.19972058821724</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.598267089314185</v>
+        <v>7.698159208658576</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.463927824228147</v>
+        <v>8.480505270021313</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.01152819676427</v>
+        <v>9.923717487087945</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.67531025531293</v>
+        <v>13.67174075114231</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.30095016228985</v>
+        <v>10.29021657089358</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11.31015174429272</v>
+        <v>11.30885895067325</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12.02207497640434</v>
+        <v>11.96988579043929</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>15.77859402234775</v>
+        <v>15.66926758940386</v>
       </c>
     </row>
     <row r="31">
